--- a/DMA_Competency_Questions.xlsx
+++ b/DMA_Competency_Questions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09744CE1-C1C5-4708-BB6F-7D7331D4CE4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40064187-E701-43E9-A183-111F3FCB89A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="28" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="94">
   <si>
     <t>Query</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>19. Which media products credit Daniel Craig in a lead role (artist/actor/voice)?</t>
-  </si>
-  <si>
-    <t>product=&gt; Casino_Royale; person =&gt; Daniel_Craig; occupation=&gt;ACTOR</t>
   </si>
   <si>
     <t>20. Which stand-up action shows have been released on DVD/Blu-ray or audio CD?</t>
@@ -588,27 +585,6 @@
 PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
 PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
 PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT distinct ?film
-WHERE { ?person schema:title ?personTitle.
-?film ?contributor ?person.
-?film rdf:type schema:Movie.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbo:role ?labelTitle.
-FILTER regex(str(?labelTitle), 'VOICE')
-FILTER regex(str(?personTitle), 'Mads Mikkelsen')
-}</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
 SELECT ?bookSerie ?order
 WHERE {  ?person schema:title ?personTitle.
          ?bookSerie ?contributor ?person.
@@ -791,31 +767,6 @@
 PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
 PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
 PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT Distinct ?product ?person ?ocupation
-WHERE { ?person schema:title ?personTitle.
-?product rdf:type ?productClass.
-?productClass rdfs:subClassOf schema:Product.
-?product ?contributor ?person.
-?person rdf:type schema:Person.
-?person rdvocab:professionOrOccupation ?ocupation.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbo:role ?labelTitle1.
-?autoG dbo:role ?labelTitle2.
-?autoG dbo:role ?labelTitle3.
-FILTER ( regex(str(?personTitle), 'Daniel Craig') &amp;&amp; (  (?ocupation = dmaInst:ACTOR)  ||  (?ocupation = dmaInst:ARTIST) || (?ocupation = dmaInst:VOICE) )
-) }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
 SELECT ?product ?format
 WHERE { 
 ?product rdf:type ?productClass.
@@ -870,6 +821,48 @@
 } </t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT distinct ?film
+WHERE { ?person schema:title ?personTitle.
+?film rdf:type schema:Movie.
+?autoG owl:annotatedSource ?film.
+?autoG owl:annotatedTarget  ?person.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+FILTER regex(str(?labelTitle), 'VOICE')
+FILTER regex(str(?personTitle), 'Mads Mikkelsen')
+}  </t>
+  </si>
+  <si>
+    <t>NOTE: This result only corresponds to query the  following example: "JamesBond Case Study".  Playing STAR the result is Casino_Royale and Euromaxx_Dossier_-_Mads_Mikkelsen</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt; PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT Distinct ?product ?person ?labelTitle
+WHERE { ?person schema:title ?personTitle.
+?product rdf:type ?productClass.
+?productClass rdfs:subClassOf schema:Product.
+?product ?contributor ?person.
+?person rdf:type schema:Person.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?labelTitle.
+FILTER ( regex(str(?personTitle), 'Daniel Craig') &amp;&amp; (  (?labelTitle = dmaInst:ACTOR)  ||  (?labelTitle = dmaInst:ARTIST) || (?labelTitle = dmaInst:VOICE) )
+) }</t>
+  </si>
+  <si>
+    <t>product=&gt; Casino_Royale; person =&gt; Daniel_Craig; labelTitle=&gt;ACTOR</t>
+  </si>
+  <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
@@ -890,12 +883,17 @@
 ?author rdvocab:professionOrOccupation dmaInst:WRITER.
 FILTER regex(str(?seriesTitle), 'James Bond')}
 UNION
-{?book rdf:type schema:Book.
+ {
+?book rdf:type schema:Book.
 ?book purl:series ?seriesTitle.
-?book dma:contributor ?contributor.
-?contributor rdf:type schema:Person.
-?contributor rdvocab:professionOrOccupation dmaInst:WRITER.
-FILTER regex(str(?seriesTitle), 'James Bond')}}</t>
+?book schema:contributor ?author.
+?author rdf:type schema:Person.
+?autoG owl:annotatedSource ?book.
+?autoG owl:annotatedTarget  ?author.
+?autoG owl:annotatedProperty schema:contributor.
+?autoG dbo:role dmaInst:WRITER.
+FILTER regex(str(?seriesTitle), 'James Bond')
+}}</t>
   </si>
 </sst>
 </file>
@@ -1370,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E951F-25D7-4945-9828-1296B902BBDE}">
   <dimension ref="C3:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1379,7 @@
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1604,7 +1602,7 @@
     </row>
     <row r="20" spans="3:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -1664,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1678,7 +1676,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1737,7 +1735,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -1785,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1799,7 +1797,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1858,7 +1856,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1917,7 +1915,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1976,7 +1974,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2035,7 +2033,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2094,7 +2092,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2153,7 +2151,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2212,7 +2210,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2271,7 +2269,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -2285,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E8FA42-64F8-4F60-A487-55E0F6A013D3}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2326,12 +2324,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2344,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A030ADF-C27B-44E5-AC5C-4DC24DAD761B}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2376,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2385,12 +2383,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2427,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2444,12 +2442,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2486,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2503,12 +2501,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2545,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2562,12 +2560,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2604,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2612,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2621,12 +2619,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2655,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2663,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="407.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2680,12 +2678,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2715,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -2727,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2744,12 +2742,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2797,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2806,12 +2804,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2848,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2856,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2870,7 +2868,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75799053-935E-4834-8CB6-BC5770C395F8}">
   <dimension ref="C2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2915,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2929,7 +2927,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2988,7 +2986,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3047,7 +3045,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3106,7 +3104,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3165,7 +3163,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3210,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3224,7 +3222,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3283,7 +3281,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/DMA_Competency_Questions.xlsx
+++ b/DMA_Competency_Questions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40064187-E701-43E9-A183-111F3FCB89A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD49EB-C302-4B1E-8026-B5AF56DD9A4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="28" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Director of Sales of an entertainment company</t>
   </si>
   <si>
-    <t>person =&gt; Daniel_Craig    count =&gt; 1</t>
-  </si>
-  <si>
     <t>2. Which Martin Campbell films are based on books?</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>8. Which songs does David Arnold write, and produce?</t>
   </si>
   <si>
-    <t>SONG =&gt; Casino_Royale_Original_Sound_Track; PERSON =&gt; David_Arnol; role1 =&gt; WRITER ; role2=&gt; PRODUCER</t>
-  </si>
-  <si>
     <t>9. How many films are based on books?</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
   </si>
   <si>
     <t>count=&gt;0</t>
-  </si>
-  <si>
-    <t>15. On which feature/adventure genre films did Hans Zimmer provide the score?</t>
   </si>
   <si>
     <t>16. On which media products is Robert Wade credited as a writer?</t>
@@ -404,29 +395,6 @@
 PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
 PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
 PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  DISTINCT ?song ?person ?role1 ?role2
-WHERE { ?person schema:title ?personTitle.
-?song ?contributor ?person.
-?person rdf:type schema:Person.
-?song rdf:type dma:Music.
-?autoG owl:annotatedProperty ?contributor.
-?autoG dbo:role ?role1.
-?autoG dbo:role ?role2.
-FILTER ( regex(str(?role1), 'WRITER') &amp;&amp; regex(str(?role2), 'PRODUCER'))
-FILTER regex(str(?personTitle), 'David Arnol')
-}</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
 SELECT ( Count(?film) as ?count)
 WHERE { 
 ?film rdf:type schema:Movie.
@@ -542,29 +510,6 @@
 PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
 PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
 PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  DISTINCT ?film ?genre
-WHERE {?film schema:genre dmaInst:ADVENTURE.
-?film rdf:type schema:Movie.
-?film schema:track ?song.
-?songPerson schema:title ?songPersonTitle.
-?song ?contributor ?songPerson.
-?songPerson rdf:type schema:Person.
-?song rdf:type schema:MusicRecording.
-?songPerson rdvocab:professionOrOccupation dmaInst:MUSICIAN
-FILTER regex(str(?songPersonTitle), 'Hans Zimmer')
-}</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
 SELECT (Count (?film) as ?count)
 WHERE { ?person schema:title ?personTitle.
 ?film ?contributor ?person.
@@ -594,31 +539,6 @@
 }
 GROUP by  ?bookSerie ?order
 Order by  ?bookSerie ?order</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
-PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
-PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX schema: &lt;https://schema.org/&gt;
-PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
-PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
-PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
-PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
-PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
-SELECT  ?book ?bookPerson1 ?bookPerson2
-WHERE { ?bookPerson1 schema:title ?bookPerson1Title.
-?bookPerson2 schema:title ?bookPerson2Title.
-?book ?contributor ?bookPerson1.
-?book ?contributor ?bookPerson2.
-?bookPerson1 rdf:type schema:Person.
-?bookPerson2 rdf:type schema:Person.
-?book rdf:type schema:Book.
-FILTER regex(str(?bookPerson1Title), 'Julia Donaldson')
-FILTER regex(str(?bookPerson2Title), 'Axel Scheffler')
-FILTER  ( (?bookPerson1 != ?bookPerson2))
-}
-Group by ?book ?bookPerson1 ?</t>
   </si>
   <si>
     <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
@@ -894,6 +814,86 @@
 ?autoG dbo:role dmaInst:WRITER.
 FILTER regex(str(?seriesTitle), 'James Bond')
 }}</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  DISTINCT ?song ?person ?role1 ?role2
+WHERE { ?person schema:title ?personTitle.
+?song ?contributor ?person.
+?person rdf:type schema:Person.
+?song rdf:type schema:MusicRecording.
+?autoG owl:annotatedProperty ?contributor.
+?autoG dbo:role ?role1.
+?autoG dbo:role ?role2.
+FILTER ( regex(str(?role1), 'WRITER') &amp;&amp; regex(str(?role2), 'PRODUCER'))
+FILTER regex(str(?personTitle), 'David Arnol')
+}</t>
+  </si>
+  <si>
+    <t>SONG =&gt; The_Name's_Bond,_James_Bond, You_Know_My_Name ; PERSON =&gt; David_Arnol; role1 =&gt; WRITER ; role2=&gt; PRODUCER</t>
+  </si>
+  <si>
+    <t>15. On which feature/adventure genre films did David Arnol provide the score?</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  DISTINCT ?film
+WHERE {?film schema:genre dmaInst:ADVENTURE.
+?film rdf:type schema:Movie.
+?film schema:track ?song.
+?songPerson schema:title ?songPersonTitle.
+?song ?contributor ?songPerson.
+?songPerson rdf:type schema:Person.
+?song rdf:type schema:MusicRecording.
+?songPerson rdvocab:professionOrOccupation dmaInst:MUSICIAN
+FILTER regex(str(?songPersonTitle), 'David Arnol')
+}</t>
+  </si>
+  <si>
+    <t>film=&gt;Casino_Royale</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX schema: &lt;https://schema.org/&gt;
+PREFIX dbo:&lt;http://dbpedia.org/ontology/&gt;
+PREFIX rdvocab: &lt;http://rdvocab.info/ElementsGr2/&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX dmaInst: &lt;https://w3id.org/media/dma/JamesBond_CaseStudy#&gt;
+PREFIX dma: &lt;https://w3id.org/media/dma#&gt;
+SELECT  ?book ?bookPerson1 ?bookPerson2
+WHERE { ?bookPerson1 schema:title ?bookPerson1Title.
+?bookPerson2 schema:title ?bookPerson2Title.
+?book ?contributor ?bookPerson1.
+?book ?contributor ?bookPerson2.
+?bookPerson1 rdf:type schema:Person.
+?bookPerson2 rdf:type schema:Person.
+?book rdf:type schema:Book.
+FILTER regex(str(?bookPerson1Title), 'Julia Donaldson')
+FILTER regex(str(?bookPerson2Title), 'Axel Scheffler')
+FILTER  ( (?bookPerson1 != ?bookPerson2))
+}
+Group by  ?book ?bookPerson1 ?bookPerson2</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="20" spans="3:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1671,12 +1671,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1730,12 +1730,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1792,12 +1792,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1851,12 +1851,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1910,12 +1910,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1969,12 +1969,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2028,12 +2028,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2078,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2087,12 +2087,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2146,12 +2146,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2205,12 +2205,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2264,12 +2264,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2324,12 +2324,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2383,12 +2383,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2442,12 +2442,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2501,12 +2501,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2560,12 +2560,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2619,12 +2619,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="407.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2678,12 +2678,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2742,12 +2742,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2804,12 +2804,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2863,12 +2863,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2922,12 +2922,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2981,12 +2981,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3040,12 +3040,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3099,12 +3099,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3158,12 +3158,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3217,12 +3217,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3233,16 +3233,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D3414F-806E-4AA2-B36D-611714C43E3E}">
-  <dimension ref="C2:F6"/>
+  <dimension ref="C2:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103" customWidth="1"/>
+    <col min="4" max="4" width="116.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="117.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3276,13 +3276,17 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
